--- a/configs/itemExample.xlsx
+++ b/configs/itemExample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12900"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -23,7 +23,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -33,7 +33,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -48,7 +48,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -58,7 +58,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -81,6 +81,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>Lang</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,7 +113,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,25 +133,25 @@
     <t>能否批量使用</t>
   </si>
   <si>
-    <t>发型</t>
+    <t>item/name/10000</t>
   </si>
   <si>
     <t>初始发型</t>
   </si>
   <si>
-    <t>外套</t>
+    <t>item/name/10001</t>
   </si>
   <si>
     <t>初始外套</t>
   </si>
   <si>
-    <t>上衣</t>
+    <t>item/name/10002</t>
   </si>
   <si>
     <t>初始上衣</t>
   </si>
   <si>
-    <t>裙子</t>
+    <t>item/name/10003</t>
   </si>
   <si>
     <t>初始下装</t>
@@ -157,7 +160,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>袜子</t>
+    <t>item/name/10004</t>
   </si>
   <si>
     <t>初始袜子</t>
@@ -166,7 +169,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>鞋子</t>
+    <t>item/name/10005</t>
   </si>
   <si>
     <t>初始鞋子</t>
@@ -175,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>发饰</t>
+    <t>item/name/10006</t>
   </si>
   <si>
     <t>初始发饰</t>
@@ -184,13 +187,19 @@
     <t>N</t>
   </si>
   <si>
+    <t>item/name/10007</t>
+  </si>
+  <si>
     <t>中秋节发饰</t>
   </si>
   <si>
+    <t>item/name/10008</t>
+  </si>
+  <si>
     <t>中秋节鞋子</t>
   </si>
   <si>
-    <t>礼包</t>
+    <t>item/name/10009</t>
   </si>
   <si>
     <t>中秋节礼包</t>
@@ -199,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -210,21 +219,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +241,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -240,14 +249,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -255,7 +264,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +272,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +280,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -279,7 +288,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,14 +296,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -302,7 +311,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -310,7 +319,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -318,14 +327,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -333,28 +342,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -844,19 +853,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,55 +878,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1186,16 +1198,16 @@
   <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.21904761904762" customWidth="1"/>
-    <col min="2" max="2" width="6.75238095238095" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3809523809524" customWidth="1"/>
-    <col min="5" max="5" width="5.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="9.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="5.50833333333333" customWidth="1"/>
     <col min="6" max="6" width="13.1333333333333" customWidth="1"/>
     <col min="7" max="7" width="5.13333333333333" customWidth="1"/>
   </cols>
@@ -1207,7 +1219,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1219,8 +1231,8 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -1248,14 +1260,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1285,20 +1297,20 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -1323,19 +1335,19 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:29">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -1360,25 +1372,25 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -1406,10 +1418,10 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1417,7 +1429,7 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1426,10 +1438,10 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1437,7 +1449,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1446,10 +1458,10 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1457,7 +1469,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1466,18 +1478,18 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="9">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1486,18 +1498,18 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1505,19 +1517,19 @@
       <c r="B11">
         <v>10005</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="9">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1526,18 +1538,18 @@
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9">
+        <v>37</v>
+      </c>
+      <c r="G12" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1545,11 +1557,11 @@
       <c r="B13">
         <v>10007</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E13">
         <v>200</v>
@@ -1557,7 +1569,7 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1565,11 +1577,11 @@
       <c r="B14">
         <v>10008</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1577,7 +1589,7 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1585,11 +1597,11 @@
       <c r="B15">
         <v>10009</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>40</v>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1597,7 +1609,7 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>11</v>
       </c>
     </row>
